--- a/Binary_Classification_BO/240618_ML_perovskite_data.xlsx
+++ b/Binary_Classification_BO/240618_ML_perovskite_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/GitHub/SL-PerovskiteOpt/Binary_Classification_BO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1C55BA-1045-C043-84AE-50F1D584540D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A29F36-1056-4459-A30F-9E87080CF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="500" windowWidth="17800" windowHeight="20380" xr2:uid="{A13D4E63-B62F-4E4D-81F2-64ED2D6F538C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{A13D4E63-B62F-4E4D-81F2-64ED2D6F538C}"/>
   </bookViews>
   <sheets>
     <sheet name="PVK Data" sheetId="1" r:id="rId1"/>
@@ -520,21 +520,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD01555-0198-8C4A-A077-3A05494DB969}">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -677,7 +677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -712,7 +712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>A11+1</f>
         <v>11</v>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A12+1</f>
         <v>12</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14:A77" si="4">A13+1</f>
         <v>13</v>
@@ -1051,7 +1051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1091,7 +1091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1242,7 +1242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1282,7 +1282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1433,7 +1433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1473,7 +1473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1514,7 +1514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -1973,7 +1973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -2280,7 +2280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -2321,7 +2321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -2436,7 +2436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -2870,7 +2870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ref="A78:A89" si="12">A77+1</f>
         <v>77</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="12"/>
         <v>78</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="12"/>
         <v>79</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="12"/>
         <v>80</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="12"/>
         <v>81</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="12"/>
         <v>82</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="12"/>
         <v>83</v>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="12"/>
         <v>84</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="12"/>
         <v>85</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="12"/>
         <v>86</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="12"/>
         <v>87</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="12"/>
         <v>88</v>
@@ -3815,9 +3815,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" ref="A90:A126" si="13">A89+1</f>
+        <f t="shared" ref="A90:A133" si="13">A89+1</f>
         <v>89</v>
       </c>
       <c r="B90">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="13"/>
         <v>90</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="13"/>
         <v>91</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="13"/>
         <v>92</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="13"/>
         <v>93</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="13"/>
         <v>94</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="13"/>
         <v>95</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="13"/>
         <v>96</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="13"/>
         <v>97</v>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="13"/>
         <v>98</v>
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="13"/>
         <v>99</v>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="13"/>
         <v>100</v>
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="13"/>
         <v>101</v>
@@ -4275,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="13"/>
         <v>102</v>
@@ -4294,7 +4294,7 @@
         <v>100</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103:F125" si="15">E103</f>
+        <f t="shared" ref="F103:F131" si="15">E103</f>
         <v>100</v>
       </c>
       <c r="G103">
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="13"/>
         <v>103</v>
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="13"/>
         <v>104</v>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="13"/>
         <v>105</v>
@@ -4419,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="13"/>
         <v>106</v>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="13"/>
         <v>107</v>
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="13"/>
         <v>108</v>
@@ -4527,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="13"/>
         <v>109</v>
@@ -4567,7 +4567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="13"/>
         <v>110</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="13"/>
         <v>111</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="13"/>
         <v>112</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="13"/>
         <v>113</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="13"/>
         <v>114</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="13"/>
         <v>115</v>
@@ -4774,7 +4774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="13"/>
         <v>116</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="13"/>
         <v>117</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="13"/>
         <v>118</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="13"/>
         <v>119</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="13"/>
         <v>120</v>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="13"/>
         <v>121</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="13"/>
         <v>122</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="13"/>
         <v>123</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="13"/>
         <v>124</v>
@@ -5078,6 +5078,164 @@
       </c>
       <c r="J125">
         <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="13"/>
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1.6</v>
+      </c>
+      <c r="C126">
+        <v>175</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>150</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G126">
+        <v>70</v>
+      </c>
+      <c r="H126">
+        <v>175</v>
+      </c>
+      <c r="I126">
+        <v>5</v>
+      </c>
+      <c r="K126">
+        <v>240618</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="13"/>
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1.6</v>
+      </c>
+      <c r="C127">
+        <v>175</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>150</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G127">
+        <v>40</v>
+      </c>
+      <c r="H127">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>0.8</v>
+      </c>
+      <c r="C128">
+        <v>175</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>150</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G128">
+        <v>60</v>
+      </c>
+      <c r="H128">
+        <v>175</v>
+      </c>
+      <c r="I128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>1.8</v>
+      </c>
+      <c r="C129">
+        <v>150</v>
+      </c>
+      <c r="D129">
+        <v>0.5</v>
+      </c>
+      <c r="E129">
+        <v>150</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G129">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>150</v>
+      </c>
+      <c r="D130">
+        <v>2.5</v>
+      </c>
+      <c r="E130">
+        <v>150</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G130">
+        <v>90</v>
+      </c>
+      <c r="H130">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>0.6</v>
+      </c>
+      <c r="C131">
+        <v>75</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>150</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G131">
+        <v>50</v>
+      </c>
+      <c r="H131">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
